--- a/mbs-perturbation/bottleneck/MLP/bottleneck-mlp-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/bottleneck-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2318840579710145</v>
+        <v>0.152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7555691554467564</v>
+        <v>0.9110159118727049</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3750000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.969155446756426</v>
+        <v>0.7973072215422277</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9578811369509044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8488372093023255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7136950904392765</v>
+        <v>0.6808785529715764</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2463768115942029</v>
+        <v>0.4837333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17953216374269</v>
+        <v>0.4374269005847953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0937799043062201</v>
+        <v>0.2821637426900585</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8490276077791379</v>
+        <v>0.8778403372773017</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/MLP/bottleneck-mlp-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/bottleneck-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.152</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.24</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9110159118727049</v>
+        <v>0.8617947178871549</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3750000000000001</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7973072215422277</v>
+        <v>0.9759903961584634</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9963800904977376</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6808785529715764</v>
+        <v>0.9942684766214177</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4837333333333333</v>
+        <v>0.2277777777777778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4374269005847953</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2821637426900585</v>
+        <v>0.09010526315789474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8778403372773017</v>
+        <v>0.9656867362329548</v>
       </c>
     </row>
   </sheetData>
